--- a/Data/EC/NIT-9013347658.xlsx
+++ b/Data/EC/NIT-9013347658.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{217DD6B5-7FE5-48DA-849F-B67C6EEEED73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78DC10EF-FF68-45CF-9978-12D00E815891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6376B841-F4AF-4563-9E2F-BEC41F7B8C08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4D97D39A-DF88-477B-812D-C220AE299096}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>JAVIER ANGEL ROJAS URDAY</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D865A2-3089-1DAB-7D74-FCE50DE47A0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1613434-EFFE-0899-B0DB-AA1AE205FA1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8508051B-851D-478A-AEF5-B3E1B475F440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5599A99A-1691-40E7-905B-B04CFBF008D3}">
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1248,7 +1248,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="24">
-        <v>28090</v>
+        <v>35112</v>
       </c>
       <c r="G25" s="24">
         <v>828116</v>

--- a/Data/EC/NIT-9013347658.xlsx
+++ b/Data/EC/NIT-9013347658.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78DC10EF-FF68-45CF-9978-12D00E815891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B5ABC06-3E69-45C7-BD58-1062317F4521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4D97D39A-DF88-477B-812D-C220AE299096}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C28884C8-9788-44B4-8572-7BC32CA1EB9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>JAVIER ANGEL ROJAS URDAY</t>
   </si>
   <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -197,7 +197,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -210,9 +212,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -412,23 +412,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,10 +456,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1613434-EFFE-0899-B0DB-AA1AE205FA1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2DF22C-8BC4-7BC4-8FDE-27F9814B01E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5599A99A-1691-40E7-905B-B04CFBF008D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C341FF-43FF-446F-8335-E756CAE7A5CC}">
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,10 +1041,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28090</v>
+        <v>35112</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1067,7 +1067,7 @@
         <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1090,7 +1090,7 @@
         <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1113,7 +1113,7 @@
         <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1136,7 +1136,7 @@
         <v>35112</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1159,7 +1159,7 @@
         <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1182,7 +1182,7 @@
         <v>35112</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1205,7 +1205,7 @@
         <v>35112</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1228,7 +1228,7 @@
         <v>35112</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1248,10 +1248,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="24">
-        <v>35112</v>
+        <v>28090</v>
       </c>
       <c r="G25" s="24">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
